--- a/forwardprimer-v3_10.xlsx
+++ b/forwardprimer-v3_10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_10" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0865-GTGTGTGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTGTTCTCGTCGGCAGCGTC</t>
+    <t>F0865-TGCTAGGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0866-AGGATCACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCACAATCGTCGGCAGCGTC</t>
+    <t>F0866-GTGTGACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGACTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0867-TGTCTACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTACACATCGTCGGCAGCGTC</t>
+    <t>F0867-AGCTGGTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGGTGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0868-AGGAGACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGACGAATCGTCGGCAGCGTC</t>
+    <t>F0868-AGGATCTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGATCTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0869-AGAGTGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTGGTCTTCGTCGGCAGCGTC</t>
+    <t>F0869-GAACACTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACACTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0870-TCAGATCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGATCAGATCGTCGGCAGCGTC</t>
+    <t>F0870-CTTGAACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0871-GATCAGGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCAGGTCATCGTCGGCAGCGTC</t>
+    <t>F0871-TCCTCCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTCCAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0872-TCCAAGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAAGACTCTCGTCGGCAGCGTC</t>
+    <t>F0872-AACGTCCTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTCCTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0873-ACTCGTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGTCATGTCGTCGGCAGCGTC</t>
+    <t>F0873-GTACAGGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0874-GCTGACTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTGACTTCTTCGTCGGCAGCGTC</t>
+    <t>F0874-CCATCAGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATCAGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0875-TCAGTACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTACGATTCGTCGGCAGCGTC</t>
+    <t>F0875-GTCTTGACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F0876-GAGTGCATCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGCATCATCGTCGGCAGCGTC</t>
+    <t>F0876-CGATCACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F0877-TGAAGTGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGTGCTTTCGTCGGCAGCGTC</t>
+    <t>F0877-AGTCAAGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAAGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F0878-CTGAGATGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGATGAGTCGTCGGCAGCGTC</t>
+    <t>F0878-ACGAGTGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGTGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F0879-AGACTGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTGATGATCGTCGGCAGCGTC</t>
+    <t>F0879-ATGTCCACAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTCCACAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F0880-AGACCTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACCTCTTGTCGTCGGCAGCGTC</t>
+    <t>F0880-CTAGGACTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGACTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F0881-ATGAGTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGTCCATTCGTCGGCAGCGTC</t>
+    <t>F0881-CGTGTGAAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTGAAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F0882-TGCTGTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGTTGGATCGTCGGCAGCGTC</t>
+    <t>F0882-TCGTTCTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGTTCTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F0883-TCTAGGTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGGTCTTTCGTCGGCAGCGTC</t>
+    <t>F0883-ACACACCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACACCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F0884-GGAGATCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAGATCAAGTCGTCGGCAGCGTC</t>
+    <t>F0884-TTGGAGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F0885-ACCACTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCACTCACATCGTCGGCAGCGTC</t>
+    <t>F0885-TACCAGAGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGAGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F0886-TGACGTTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACGTTGAATCGTCGGCAGCGTC</t>
+    <t>F0886-CATGAACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGAACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F0887-CTCCACACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCCACACAATCGTCGGCAGCGTC</t>
+    <t>F0887-TCCAGGTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGGTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F0888-TGTCAAGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCAAGGACTCGTCGGCAGCGTC</t>
+    <t>F0888-CAAGAACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAACTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F0889-TACTGGTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTGGTTGGTCGTCGGCAGCGTC</t>
+    <t>F0889-TGTACTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTACTCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F0890-AACGATGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGATGACATCGTCGGCAGCGTC</t>
+    <t>F0890-ACAGGTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGTGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F0891-TCGAACCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGAACCTCATCGTCGGCAGCGTC</t>
+    <t>F0891-GATCACTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCACTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F0892-CATGCAAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGCAAGTATCGTCGGCAGCGTC</t>
+    <t>F0892-ACTCAACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCAACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F0893-TCATCACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCATCACTCTTCGTCGGCAGCGTC</t>
+    <t>F0893-CCAAGCTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCAAGCTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F0894-ACAGTCTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTCTCTGTCGTCGGCAGCGTC</t>
+    <t>F0894-TCTCTTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTTGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F0895-TGGTACCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTACCTACTCGTCGGCAGCGTC</t>
+    <t>F0895-TTGGTAGCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTAGCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F0896-TACGACCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGACCATCTCGTCGGCAGCGTC</t>
+    <t>F0896-TCCAACGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F0897-CTGCTACCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGCTACCTTTCGTCGGCAGCGTC</t>
+    <t>F0897-TTGGAGATGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGATGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F0898-AGAGCTGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTGTCATCGTCGGCAGCGTC</t>
+    <t>F0898-ACCAAGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGTGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F0899-CGAAGAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGAGAGTTCGTCGGCAGCGTC</t>
+    <t>F0899-CTTCGTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTCGTAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F0900-GTCACATCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACATCTGTCGTCGGCAGCGTC</t>
+    <t>F0900-TAGTCCACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCCACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F0901-ACAACGATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACGATCCTCGTCGGCAGCGTC</t>
+    <t>F0901-GTTCAAGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCAAGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F0902-TCAGTGGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGGTACTCGTCGGCAGCGTC</t>
+    <t>F0902-GGATCCTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATCCTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F0903-GAGTTGATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGTTGATGGTCGTCGGCAGCGTC</t>
+    <t>F0903-ATGGACGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGACGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F0904-TACATCGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATCGTCCTCGTCGGCAGCGTC</t>
+    <t>F0904-AAGGACTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGACTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F0905-ATCCTCAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCAGATTCGTCGGCAGCGTC</t>
+    <t>F0905-ACTTCGACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCGACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F0906-TCACTGCAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTGCAGATCGTCGGCAGCGTC</t>
+    <t>F0906-CGAAGTTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGTTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F0907-TTGTCCTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCCTTCCTCGTCGGCAGCGTC</t>
+    <t>F0907-AGCAGTACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGTACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F0908-TCCTTGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCTTGTAGCTCGTCGGCAGCGTC</t>
+    <t>F0908-GTGCTACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCTACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F0909-AGGTTCGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCGACTTCGTCGGCAGCGTC</t>
+    <t>F0909-GTTGACCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGACCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0910-GATGAAGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAAGCTCTCGTCGGCAGCGTC</t>
+    <t>F0910-AGACTTGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTTGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0911-AGTGATGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGATGGAATCGTCGGCAGCGTC</t>
+    <t>F0911-CAAGAACCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAACCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0912-AGAGGAACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGAACAGTCGTCGGCAGCGTC</t>
+    <t>F0912-AAGAACGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0913-ACAACCTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACCTAGCTCGTCGGCAGCGTC</t>
+    <t>F0913-ACGTAGGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0914-TGAAGCATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGCATCGTCGTCGGCAGCGTC</t>
+    <t>F0914-AGCATCACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATCACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0915-GAACACGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACGACTTCGTCGGCAGCGTC</t>
+    <t>F0915-CGTTCCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTCCAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0916-TCTTGCACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGCACACTCGTCGGCAGCGTC</t>
+    <t>F0916-AGATCGAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATCGAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0917-CCAACTTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCAACTTGAATCGTCGGCAGCGTC</t>
+    <t>F0917-AGAACTGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0918-CAACATGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACATGACGTCGTCGGCAGCGTC</t>
+    <t>F0918-TTGAGGACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0919-TACATCTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACATCTGGTTCGTCGGCAGCGTC</t>
+    <t>F0919-ATGGAACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGAACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0920-ACACTGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTGTCAATCGTCGGCAGCGTC</t>
+    <t>F0920-GAGATCATCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGATCATCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0921-AGACCACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACCACACTTCGTCGGCAGCGTC</t>
+    <t>F0921-CCTCTCATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTCATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0922-AGATCCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATCCTTGTTCGTCGGCAGCGTC</t>
+    <t>F0922-TAGAACAGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACAGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0923-TCAGACATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACATGGTCGTCGGCAGCGTC</t>
+    <t>F0923-CACGACTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACGACTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F0924-TGACTCCTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACTCCTTCTCGTCGGCAGCGTC</t>
+    <t>F0924-TGCACAGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCACAGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F0925-AGGACACCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGACACCATTCGTCGGCAGCGTC</t>
+    <t>F0925-GGATGTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F0926-AACACTCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACTCTTGTCGTCGGCAGCGTC</t>
+    <t>F0926-TACGTCTCCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTCTCCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F0927-TGGATGGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGATGGTCTTCGTCGGCAGCGTC</t>
+    <t>F0927-TAGTGTCTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGTCTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F0928-CCATCAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCATCAGGATTCGTCGGCAGCGTC</t>
+    <t>F0928-TTCAGCTGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGCTGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F0929-TACGATCGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGATCGTTTCGTCGGCAGCGTC</t>
+    <t>F0929-AGAGTCCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGTCCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F0930-GGTAGCTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTAGCTCATTCGTCGGCAGCGTC</t>
+    <t>F0930-TACAAGGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F0931-TGCTCTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTCTCCATTCGTCGGCAGCGTC</t>
+    <t>F0931-GAACTTCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACTTCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F0932-TGGTTCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTTCAGTATCGTCGGCAGCGTC</t>
+    <t>F0932-GAAGCACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F0933-ACACCTTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCTTGAGTCGTCGGCAGCGTC</t>
+    <t>F0933-CAACTAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTAGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F0934-CCTGTTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTGTTGATCTCGTCGGCAGCGTC</t>
+    <t>F0934-AGTCCAGGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCAGGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F0935-CCACATGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCACATGTTCTCGTCGGCAGCGTC</t>
+    <t>F0935-GTCTAGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTAGGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0936-ACTCTAGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGACGTCGTCGGCAGCGTC</t>
+    <t>F0936-TCACACTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACACTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F0937-CGATCAACCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATCAACCATCGTCGGCAGCGTC</t>
+    <t>F0937-ACTGGTTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGGTTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F0938-CTAGGAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGGAGTCTTCGTCGGCAGCGTC</t>
+    <t>F0938-GAAGGAGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGAGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F0939-TCACTCAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCAGCTTCGTCGGCAGCGTC</t>
+    <t>F0939-ACATCTCCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCTCCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F0940-GCACATCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCACATCTGTTCGTCGGCAGCGTC</t>
+    <t>F0940-CCTTCTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTCTAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F0941-TACTCCTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCCTACTTCGTCGGCAGCGTC</t>
+    <t>F0941-ATGGTTCCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTCCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F0942-TGTGTCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTCTTGTTCGTCGGCAGCGTC</t>
+    <t>F0942-ACACAGCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACAGCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F0943-GTACTGCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTGCTCTTCGTCGGCAGCGTC</t>
+    <t>F0943-GGTGACTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGACTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F0944-AGCTTCAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCAGGTTCGTCGGCAGCGTC</t>
+    <t>F0944-TTCTGTCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGTCAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F0945-TCTGGTGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGTGAGATCGTCGGCAGCGTC</t>
+    <t>F0945-TGGTGCATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGCATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F0946-TTCTTGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTTGACTGTCGTCGGCAGCGTC</t>
+    <t>F0946-GTGAGCACTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGAGCACTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F0947-ATGCTCTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTCTACGTCGTCGGCAGCGTC</t>
+    <t>F0947-TGGAGACTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAGACTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F0948-CTCAAGTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGTACTTCGTCGGCAGCGTC</t>
+    <t>F0948-CGACCTACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACCTACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F0949-GAACGTTGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACGTTGCATCGTCGGCAGCGTC</t>
+    <t>F0949-CAAGAGGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F0950-ATGTGGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGGAAGGTCGTCGGCAGCGTC</t>
+    <t>F0950-TCCTGGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCTGGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F0951-ATGATCCTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGATCCTGGTCGTCGGCAGCGTC</t>
+    <t>F0951-GGACAGATCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGACAGATCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0952-CGAAGTCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAAGTCTAGTCGTCGGCAGCGTC</t>
+    <t>F0952-CAACCTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACCTTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0953-ACACAGCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAGCTGATCGTCGGCAGCGTC</t>
+    <t>F0953-TTCACCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCACCTCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0954-GATGCACTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCACTCATCGTCGGCAGCGTC</t>
+    <t>F0954-ACAACTCAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACTCAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0955-TAGGTTCGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTTCGTATCGTCGGCAGCGTC</t>
+    <t>F0955-ATGACGTTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGACGTTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0956-TCAAGCAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCAGCATCGTCGGCAGCGTC</t>
+    <t>F0956-AGACAGCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACAGCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0957-TCTAGACCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTAGACCACTCGTCGGCAGCGTC</t>
+    <t>F0957-AGAACGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAACGTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0958-AGATGACACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGACACATCGTCGGCAGCGTC</t>
+    <t>F0958-ACACTCAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTCAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0959-TCTACCAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACCAAGTTCGTCGGCAGCGTC</t>
+    <t>F0959-TGAACAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAACAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0960-ACACCACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCACGATTCGTCGGCAGCGTC</t>
+    <t>F0960-GTACTTGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTTGGAGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
